--- a/tests/inventories/Digital Production Hub Inventory_Blank Rows.xlsx
+++ b/tests/inventories/Digital Production Hub Inventory_Blank Rows.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amhan\Documents\GitHub\hub-audit\tests\inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahanson\Documents\GitHub\hub-audit\tests\inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E20B31D-75F5-4AC9-87A5-CF7B43A23AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C2954-F1F9-443B-97C6-A0B7D91F0686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30765" yWindow="5220" windowWidth="19695" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Digital Ingest" sheetId="7" r:id="rId1"/>
     <sheet name="Mezzanine 1" sheetId="13" r:id="rId2"/>
     <sheet name="Russell" sheetId="5" r:id="rId3"/>
+    <sheet name="Examples" sheetId="14" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Digital Ingest'!$A$1:$G$2</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
   <si>
     <t>Share (required)</t>
   </si>
@@ -109,6 +110,15 @@
   </si>
   <si>
     <t>Callie</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>E. X. Ample</t>
+  </si>
+  <si>
+    <t>Info</t>
   </si>
 </sst>
 </file>
@@ -185,9 +195,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -225,7 +235,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -331,7 +341,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -473,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,17 +501,17 @@
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="57.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="72.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="43.40625" customWidth="1"/>
+    <col min="6" max="6" width="57.7265625" customWidth="1"/>
+    <col min="7" max="7" width="28.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -547,8 +557,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -565,13 +575,13 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -613,17 +623,17 @@
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="57.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="72.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="43.40625" customWidth="1"/>
+    <col min="6" max="6" width="57.7265625" customWidth="1"/>
+    <col min="7" max="7" width="28.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -669,7 +679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -706,22 +716,22 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="57.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="72.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="43.40625" customWidth="1"/>
+    <col min="6" max="6" width="57.7265625" customWidth="1"/>
+    <col min="7" max="7" width="28.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="118" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -781,6 +791,109 @@
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFA2578-45C9-4027-90F3-945AF845B59A}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.75">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45688</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45688</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{89F82EB3-AE8F-449C-83A6-E6A531458578}">
+      <formula1>"Access/Mezzanine,Backlog,Outsourced Graphics,Medium Priority,Transfer,Working Files"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -814,15 +927,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051E6EA1095A24B4CB9729835D0C20D83" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc0c55b87092411a2e066e82a5a276b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d09f93eb-00d0-400e-a5cd-81161df8bdb0" xmlns:ns3="603b486a-d1d5-4102-bae7-ac15bf6ef37a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5e422eacb72394920a94c0663222dde" ns2:_="" ns3:_="">
     <xsd:import namespace="d09f93eb-00d0-400e-a5cd-81161df8bdb0"/>
@@ -1045,6 +1149,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31CFD876-DDBA-4209-BCCE-053DBDF40974}">
   <ds:schemaRefs>
@@ -1056,14 +1169,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{014E67E0-5B31-4AB8-94C2-FDAC36674AC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77D5365D-8015-4AE9-A41D-CA09BCDCE43E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1080,4 +1185,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{014E67E0-5B31-4AB8-94C2-FDAC36674AC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>